--- a/stock.xlsx
+++ b/stock.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
